--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EF5C54-1008-4AAC-ACE4-E5A8DA002F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA46F368-27D2-4A49-9164-7B85D9F3BBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,20 +718,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.44140625" customWidth="1"/>
-    <col min="4" max="4" width="58.109375" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -751,7 +750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -785,7 +784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -819,7 +818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -853,7 +852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -887,7 +886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -921,7 +920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -955,7 +954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -989,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1040,7 +1039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1091,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1125,7 +1124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1210,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1278,7 +1277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1737,7 +1736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1772,13 +1771,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E61" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="spa"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E61" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
